--- a/results/Outside.TextureConfusion.rotation.xlsx
+++ b/results/Outside.TextureConfusion.rotation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>min-er</t>
+  </si>
+  <si>
+    <t>fm2d</t>
+  </si>
+  <si>
+    <t>fvr</t>
   </si>
 </sst>
 </file>
@@ -397,11 +406,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="539677744"/>
-        <c:axId val="539678528"/>
+        <c:axId val="200543368"/>
+        <c:axId val="200538272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539677744"/>
+        <c:axId val="200543368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,7 +448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539678528"/>
+        <c:crossAx val="200538272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -447,7 +456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539678528"/>
+        <c:axId val="200538272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -493,7 +502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539677744"/>
+        <c:crossAx val="200543368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="539673432"/>
-        <c:axId val="539675392"/>
+        <c:axId val="200539448"/>
+        <c:axId val="200542192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="539673432"/>
+        <c:axId val="200539448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539675392"/>
+        <c:crossAx val="200542192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1413,7 +1422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539675392"/>
+        <c:axId val="200542192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1426,7 +1435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539673432"/>
+        <c:crossAx val="200539448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1723,11 +1732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="539679312"/>
-        <c:axId val="539674216"/>
+        <c:axId val="200537880"/>
+        <c:axId val="200538664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539679312"/>
+        <c:axId val="200537880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +1774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539674216"/>
+        <c:crossAx val="200538664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1773,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539674216"/>
+        <c:axId val="200538664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1819,7 +1828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539679312"/>
+        <c:crossAx val="200537880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1874,7 +1883,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1914,15 +1923,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1942,7 +1951,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6334125" y="4781549"/>
+    <xdr:pos x="6324600" y="638174"/>
     <xdr:ext cx="6191249" cy="4219575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2253,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,7 +2697,7 @@
         <v>8.3345800000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2718,7 +2727,7 @@
         <v>1619.39</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2748,7 +2757,7 @@
         <v>6.87819</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2778,7 +2787,7 @@
         <v>2441.27</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2808,7 +2817,7 @@
         <v>24.805</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2838,7 +2847,7 @@
         <v>54.368899999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2868,7 +2877,7 @@
         <v>555.74300000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2898,7 +2907,7 @@
         <v>78.940200000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2928,7 +2937,7 @@
         <v>69.813999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2958,7 +2967,7 @@
         <v>1523.35</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2988,7 +2997,7 @@
         <v>11412.4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3018,7 +3027,7 @@
         <v>5008.32</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3048,7 +3057,7 @@
         <v>2171.8000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3079,8 +3088,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -3090,39 +3117,63 @@
         <v>8.5975900000000003</v>
       </c>
       <c r="C31">
-        <f>C5/$B31</f>
+        <f t="shared" ref="C31:I31" si="1">C5/$B31</f>
         <v>0.73743804949991798</v>
       </c>
       <c r="D31">
-        <f>D5/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.8680827999474271</v>
       </c>
       <c r="E31">
-        <f>E5/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.75464054461773589</v>
       </c>
       <c r="F31">
-        <f>F5/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.93137611819126054</v>
       </c>
       <c r="G31">
-        <f>G5/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.91805029083731604</v>
       </c>
       <c r="H31">
-        <f>H5/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.0566170287254917</v>
       </c>
       <c r="I31">
-        <f>I5/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.73702049062586139</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J38" si="1">MIN(G31:I31)</f>
+        <f t="shared" ref="J31:J38" si="2">MIN(G31:I31)</f>
         <v>0.73702049062586139</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.73702049062586139</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q38" si="3">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -3132,41 +3183,65 @@
         <v>26.939</v>
       </c>
       <c r="C32">
-        <f>C8/$B32</f>
+        <f t="shared" ref="C32:I34" si="4">C8/$B32</f>
         <v>5.2128141356397784</v>
       </c>
       <c r="D32">
-        <f>D8/$B32</f>
+        <f t="shared" si="4"/>
         <v>0.43420319982181965</v>
       </c>
       <c r="E32">
-        <f>E8/$B32</f>
+        <f t="shared" si="4"/>
         <v>0.34271205315713277</v>
       </c>
       <c r="F32">
-        <f>F8/$B32</f>
+        <f t="shared" si="4"/>
         <v>0.90877166932699804</v>
       </c>
       <c r="G32">
-        <f>G8/$B32</f>
+        <f t="shared" si="4"/>
         <v>0.61929915735550689</v>
       </c>
       <c r="H32">
-        <f>H8/$B32</f>
+        <f t="shared" si="4"/>
         <v>0.61099521140354129</v>
       </c>
       <c r="I32">
-        <f>I8/$B32</f>
+        <f t="shared" si="4"/>
         <v>0.40214558818070451</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40214558818070451</v>
       </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L38" si="5">MIN(C32:J32)</f>
+        <v>0.34271205315713277</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M38" si="6">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q38" si="7">IF($L32=J32,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="e">
-        <f t="shared" ref="A33:A38" si="2">A32+1</f>
+        <f t="shared" ref="A33:A38" si="8">A32+1</f>
         <v>#REF!</v>
       </c>
       <c r="B33">
@@ -3174,41 +3249,65 @@
         <v>10.645300000000001</v>
       </c>
       <c r="C33">
-        <f>C9/$B33</f>
+        <f t="shared" si="4"/>
         <v>2.1058119545715011</v>
       </c>
       <c r="D33">
-        <f>D9/$B33</f>
+        <f t="shared" si="4"/>
         <v>14.920669215522343</v>
       </c>
       <c r="E33">
-        <f>E9/$B33</f>
+        <f t="shared" si="4"/>
         <v>0.62820023860295149</v>
       </c>
       <c r="F33">
-        <f>F9/$B33</f>
+        <f t="shared" si="4"/>
         <v>1.0218688059519223</v>
       </c>
       <c r="G33">
-        <f>G9/$B33</f>
+        <f t="shared" si="4"/>
         <v>1.018505819469625</v>
       </c>
       <c r="H33">
-        <f>H9/$B33</f>
+        <f t="shared" si="4"/>
         <v>1.2291433778287131</v>
       </c>
       <c r="I33">
-        <f>I9/$B33</f>
+        <f t="shared" si="4"/>
         <v>0.61230965778324709</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61230965778324709</v>
       </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.61230965778324709</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="B34">
@@ -3216,39 +3315,63 @@
         <v>75.832700000000003</v>
       </c>
       <c r="C34">
-        <f>C10/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.94975650346090801</v>
       </c>
       <c r="D34">
-        <f>D10/$B34</f>
+        <f t="shared" si="4"/>
         <v>1.0468544572460166</v>
       </c>
       <c r="E34">
-        <f>E10/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.85808760600637979</v>
       </c>
       <c r="F34">
-        <f>F10/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.95518028502216057</v>
       </c>
       <c r="G34">
-        <f>G10/$B34</f>
+        <f t="shared" si="4"/>
         <v>1.0060712594962331</v>
       </c>
       <c r="H34">
-        <f>H10/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.94679472048337987</v>
       </c>
       <c r="I34">
-        <f>I10/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.83449751888037749</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83449751888037749</v>
       </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.83449751888037749</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -3258,41 +3381,65 @@
         <v>20.0975</v>
       </c>
       <c r="C35">
-        <f>C15/$B35</f>
+        <f t="shared" ref="C35:I38" si="9">C15/$B35</f>
         <v>0.50282373429531035</v>
       </c>
       <c r="D35">
-        <f>D15/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.71739271053613629</v>
       </c>
       <c r="E35">
-        <f>E15/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.37240651822365967</v>
       </c>
       <c r="F35">
-        <f>F15/$B35</f>
+        <f t="shared" si="9"/>
         <v>1.0315810424182112</v>
       </c>
       <c r="G35">
-        <f>G15/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.7192685657420077</v>
       </c>
       <c r="H35">
-        <f>H15/$B35</f>
+        <f t="shared" si="9"/>
         <v>45.761960442841151</v>
       </c>
       <c r="I35">
-        <f>I15/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.38542903346187335</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38542903346187335</v>
       </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.37240651822365967</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="B36">
@@ -3300,41 +3447,65 @@
         <v>294.91199999999998</v>
       </c>
       <c r="C36">
-        <f>C16/$B36</f>
+        <f t="shared" si="9"/>
         <v>2.9295891655815972E-2</v>
       </c>
       <c r="D36">
-        <f>D16/$B36</f>
+        <f t="shared" si="9"/>
         <v>6.5315077039930558E-2</v>
       </c>
       <c r="E36">
-        <f>E16/$B36</f>
+        <f t="shared" si="9"/>
         <v>3.3200547960069444E-2</v>
       </c>
       <c r="F36">
-        <f>F16/$B36</f>
+        <f t="shared" si="9"/>
         <v>0.9632331000434029</v>
       </c>
       <c r="G36">
-        <f>G16/$B36</f>
+        <f t="shared" si="9"/>
         <v>5.4792277018229169E-2</v>
       </c>
       <c r="H36">
-        <f>H16/$B36</f>
+        <f t="shared" si="9"/>
         <v>4.0375094943576391E-2</v>
       </c>
       <c r="I36">
-        <f>I16/$B36</f>
+        <f t="shared" si="9"/>
         <v>2.826124403211806E-2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.826124403211806E-2</v>
       </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>2.826124403211806E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="B37">
@@ -3342,41 +3513,65 @@
         <v>69.983199999999997</v>
       </c>
       <c r="C37">
-        <f>C17/$B37</f>
+        <f t="shared" si="9"/>
         <v>0.50911790258233403</v>
       </c>
       <c r="D37">
-        <f>D17/$B37</f>
+        <f t="shared" si="9"/>
         <v>0.47957652693789371</v>
       </c>
       <c r="E37">
-        <f>E17/$B37</f>
+        <f t="shared" si="9"/>
         <v>0.47146029332754152</v>
       </c>
       <c r="F37">
-        <f>F17/$B37</f>
+        <f t="shared" si="9"/>
         <v>0.86148818573600527</v>
       </c>
       <c r="G37">
-        <f>G17/$B37</f>
+        <f t="shared" si="9"/>
         <v>0.45166697150173191</v>
       </c>
       <c r="H37">
-        <f>H17/$B37</f>
+        <f t="shared" si="9"/>
         <v>12.903268212942535</v>
       </c>
       <c r="I37">
-        <f>I17/$B37</f>
+        <f t="shared" si="9"/>
         <v>23.139696384275087</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45166697150173191</v>
       </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0.45166697150173191</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="B38">
@@ -3384,36 +3579,139 @@
         <v>46.090699999999998</v>
       </c>
       <c r="C38">
-        <f>C18/$B38</f>
+        <f t="shared" si="9"/>
         <v>0.14646664077568794</v>
       </c>
       <c r="D38">
-        <f>D18/$B38</f>
+        <f t="shared" si="9"/>
         <v>0.1637623208152621</v>
       </c>
       <c r="E38">
-        <f>E18/$B38</f>
+        <f t="shared" si="9"/>
         <v>0.15590976053737524</v>
       </c>
       <c r="F38">
-        <f>F18/$B38</f>
+        <f t="shared" si="9"/>
         <v>0.93783127615766304</v>
       </c>
       <c r="G38">
-        <f>G18/$B38</f>
+        <f t="shared" si="9"/>
         <v>0.36013121953018723</v>
       </c>
       <c r="H38">
-        <f>H18/$B38</f>
+        <f t="shared" si="9"/>
         <v>33.714610539653336</v>
       </c>
       <c r="I38">
-        <f>I18/$B38</f>
+        <f t="shared" si="9"/>
         <v>0.14923162373320431</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14923162373320431</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0.14646664077568794</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f>ROUND(AVERAGE(C31:C38)*1000,2)</f>
+        <v>1274.19</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:J39" si="10">ROUND(AVERAGE(D31:D38)*1000,2)</f>
+        <v>2336.98</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="10"/>
+        <v>452.08</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="10"/>
+        <v>951.42</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="10"/>
+        <v>643.47</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="10"/>
+        <v>12032.97</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="10"/>
+        <v>3286.07</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="10"/>
+        <v>450.07</v>
+      </c>
+      <c r="L39" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <f>AVERAGE(M31:M38)*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="N39">
+        <f>AVERAGE(N31:N38)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>AVERAGE(O31:O38)*100</f>
+        <v>25</v>
+      </c>
+      <c r="P39">
+        <f>AVERAGE(P31:P38)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f>AVERAGE(Q31:Q38)*100</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f>ROUND(M39,2)</f>
+        <v>12.5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:Q40" si="11">ROUND(N39,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="11"/>
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
